--- a/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
+++ b/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OffCampus\LG전자\심사\2023_10\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Reviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B842E8-012C-48FA-A678-9EF8EB8FAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14610"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="평가항목">'Value 설명'!$C$6:$C$13</definedName>
     <definedName name="피드백종류">'Value 설명'!$F$2:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,29 +299,8 @@
     <t>반영Page</t>
   </si>
   <si>
-    <t>Thank you very much for your detailed review. I rewrite the document to present contents at a more abstract level. I rename project title as "Effective inter-communication between two SOC in a vehicle system". I also change name of NAD Proxy to NAD Relay (Because it main role is to relay message from NAD Manager to other components on NAD SoC). Your comments are very valuable for me. In below parts, I will answer your questions based on new version of the document (version 1.6).</t>
-  </si>
-  <si>
-    <t>I updated it more specifically on Scenario for QA03.
- Validation part 10.2 verifies this QA result.</t>
-  </si>
-  <si>
-    <t>Those components are also new implementation for ICON.
-NAD SoC have many components based on Tiger framework, which shares implementation with differrent Telematic projects. ICON is one of Telematic projects. Therefore, source code of a component is resuable between differrent Telematics projects with minor change. If there is no existing component can be reused, a new implementation is needed. I rewrite System context diagram in new version.</t>
-  </si>
-  <si>
     <t>It is located in Peripheral Control Part. I moved this part
  to Appendix at part 12.4 on new version.</t>
-  </si>
-  <si>
-    <t>NAD Manager has Business Logic part, meanwhile NAD 
-Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
-NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
-  </si>
-  <si>
-    <t>Using coroutines can be a solution. For this project, I 
-would like to propose a solution for handling asynchronous call. The continuation is run on context of a worker thread on Dynamic Task Executor. This solution (Promise and Dynamic Task Executor) is written as shared libary and can be applied to differrent Telematics project.
-Thank you for your suggestion on configuring context to execute continuation, I will apply it.</t>
   </si>
   <si>
     <t>I will fix this error.</t>
@@ -394,23 +372,41 @@
     <t>I will close the document review session. Please fill missing TBDs and mis-aligned nameing, figure, and table numbers before presentation. Please prepare well for the presentation evaluation focusing on key points.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Thank you very much for your detailed review. I rewrite the document to present contents at a more abstract level. I rename project title as "Effective inter-communication between two SOC in a vehicle system". I also change name of NAD Proxy to NAD Relay (Because its main role is to relay message from NAD Manager to other components on NAD SoC). Your comments are very valuable for me. In below parts, I will answer your questions based on new version of the document (version 1.7).</t>
+  </si>
+  <si>
+    <t>I updated it more specifically for QA03.
+ Validation part 10.2 verifies this QA result.</t>
+  </si>
+  <si>
+    <t>Those components are also new implementation for ICON projects.
+NAD SoC have many components based on Tiger framework, which are reused among differrent Telematic projects. ICON is one of Telematic projects. Therefore, source code of a component is resuable between differrent Telematics projects with minor change. If there is no existing component that can be reused, a new implementation is needed. NAD Manager and NAD Proxy(NAD Relay) and serveral components are new implementation on ICON. I rewrite System context diagram (part 4.1.1) to avoid confusing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using coroutines can be an good alternative solution. Coroutines uses cooperative context switching instead of preemptive time-slicing as Asynch Helper and Task Executor. Async helper internally uses Task Executor to  execute a continuation. That means the continuation will be executed asynchronously by a worker thread on Task Executor. Both Async helper and Task Executor belong to Asynchronous liabrary. This library offers very simple API to be used by applications like NAD Manager or NAD Relay or any component. Complexity of internal communication inside Task Executor and Async Helper are hidden from user code.    For this project, I would like to propose a solution for handling asynchronous operation using this Asynchronous library and hoping this library can be used for other Telematics project also. I will try to apply coroutines on future work. That is a good candidate. Thank you very much.  </t>
+  </si>
+  <si>
+    <t>NAD Manager has Business Logic part, meanwhile NAD Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
+NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -419,7 +415,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -568,7 +564,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,30 +841,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.69921875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="44.796875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.296875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.19921875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -888,7 +884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="24">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -950,7 +946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="184.8">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="204">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -969,15 +965,15 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="39.6">
+    <row r="8" spans="1:11" ht="36">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -998,15 +994,15 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="145.19999999999999">
+    <row r="9" spans="1:11" ht="180">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1027,15 +1023,15 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="39.6">
+    <row r="10" spans="1:11" ht="36">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1056,15 +1052,15 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="171.6">
+    <row r="11" spans="1:11" ht="168">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1085,15 +1081,15 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="382.8">
+    <row r="12" spans="1:11" ht="384">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1110,19 +1106,19 @@
         <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="145.19999999999999">
+    <row r="13" spans="1:11" ht="276">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1143,15 +1139,15 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="39.6">
+    <row r="14" spans="1:11" ht="48">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1172,19 +1168,19 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -1196,10 +1192,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1207,24 +1203,24 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="26.4">
+    <row r="16" spans="1:11" ht="36">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1232,9 +1228,9 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="52.8">
+    <row r="17" spans="1:11" ht="48">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -1243,13 +1239,13 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1257,9 +1253,9 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="52.8">
+    <row r="18" spans="1:11" ht="48">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
@@ -1270,7 +1266,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2013,22 +2009,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180">
       <formula1>"피드백종류"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76">
       <formula1>심사차수</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78">
       <formula1>평가항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100">
       <formula1>대응방법</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136">
       <formula1>최종피드백</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165 C18" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165 C18">
       <formula1>피드백종류</formula1>
     </dataValidation>
   </dataValidations>
@@ -2041,20 +2037,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">

--- a/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
+++ b/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>평가항목</t>
   </si>
@@ -318,10 +318,6 @@
   <si>
     <t>p.10
 Table 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[REQ-NFR-NMP-01~REQ-NFR-NMP-04] Can you explain why and on what grounds the # of test runs are set to 20? And what kind of test do you mean?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,6 +385,29 @@
   <si>
     <t>NAD Manager has Business Logic part, meanwhile NAD Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
 NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
+  </si>
+  <si>
+    <t>Sorry I updated 
+in new version.</t>
+  </si>
+  <si>
+    <t>Yes, I fill all TBDs sections in new 
+version.</t>
+  </si>
+  <si>
+    <t>[REQ-NFR-NMP-01~REQ-NFR-NMP-04] Can you explain why and on what grounds the # of test runs are set to 20? And what kind of test do you mean?</t>
+  </si>
+  <si>
+    <t>It is original requirement by OEM(BMW). 
+I think the reason they choose # of tests as 20 is because in an embedded system like vehicle, 20 tests (requests) run concurrenly is considered high traffic environment. So if all 20 tests run concurrently with PASS result, it shows that system meets some expected level of stablibity. In validation section, I also evaluate performance by using 20 concurrent requests from external component.
+The kind of test is functional testing. For example, testing for emergency feature, coding feature, etc.</t>
+  </si>
+  <si>
+    <t>I correct mismatch in new version.</t>
+  </si>
+  <si>
+    <t>Thank you very much for your review. 
+I corrected many missing TBD parts. I will prepare carefully for presentation.</t>
   </si>
 </sst>
 </file>
@@ -845,10 +864,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -868,7 +887,7 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -876,7 +895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24">
+    <row r="3" spans="1:12" ht="24">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -892,7 +911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -911,7 +930,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1">
+    <row r="6" spans="1:12" s="7" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="K6" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="204">
+      <c r="L6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="204">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -965,15 +987,16 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="36">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="36">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -994,15 +1017,16 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="180">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="180">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1023,15 +1047,16 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="36">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="36">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1056,11 +1081,12 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="168">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="168">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1081,15 +1107,16 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="384">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="384">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1106,19 +1133,20 @@
         <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="276">
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="276">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1139,15 +1167,16 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="48">
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="48">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1172,13 +1201,16 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1192,18 +1224,21 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="36">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="192">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -1220,15 +1255,18 @@
         <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="48">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="48">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -1239,21 +1277,24 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="48">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="48">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -1266,15 +1307,18 @@
         <v>56</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1287,7 +1331,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1300,7 +1344,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1312,7 +1356,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1325,7 +1369,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1338,7 +1382,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1351,7 +1395,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1364,7 +1408,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1377,7 +1421,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1390,7 +1434,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1403,7 +1447,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1416,7 +1460,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1429,7 +1473,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1442,7 +1486,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>

--- a/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
+++ b/doc/SA cert/Reviewer/jeditor_file_provider_2nd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Reviewer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikt/taikt/code/codefun/doc/SA cert/Reviewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A17AAA-7ADC-254B-9861-3F2764BAF094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="14610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -27,16 +28,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -383,10 +374,6 @@
     <t xml:space="preserve">Using coroutines can be an good alternative solution. Coroutines uses cooperative context switching instead of preemptive time-slicing as Asynch Helper and Task Executor. Async helper internally uses Task Executor to  execute a continuation. That means the continuation will be executed asynchronously by a worker thread on Task Executor. Both Async helper and Task Executor belong to Asynchronous liabrary. This library offers very simple API to be used by applications like NAD Manager or NAD Relay or any component. Complexity of internal communication inside Task Executor and Async Helper are hidden from user code.    For this project, I would like to propose a solution for handling asynchronous operation using this Asynchronous library and hoping this library can be used for other Telematics project also. I will try to apply coroutines on future work. That is a good candidate. Thank you very much.  </t>
   </si>
   <si>
-    <t>NAD Manager has Business Logic part, meanwhile NAD Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
-NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
-  </si>
-  <si>
     <t>Sorry I updated 
 in new version.</t>
   </si>
@@ -398,22 +385,26 @@
     <t>[REQ-NFR-NMP-01~REQ-NFR-NMP-04] Can you explain why and on what grounds the # of test runs are set to 20? And what kind of test do you mean?</t>
   </si>
   <si>
+    <t>NAD Manager has Business Logic part, while NAD Relay(Proxy) doesn't has. The reason is NAD Manager has to communicate with other services on BAM Soc to process request first and then send request to 
+NAD Relay. The role of NAD Relay is only to relay message to other services on NAD SoC without involving to handle business logic complexity. Therefore, on NAD Relay, message from an IPC type (SomeIP) goto Request Manager before relaying another IPC type (Binder) to reach services on NAD SoC (on NAD SoC, Binder is only IPC type)</t>
+  </si>
+  <si>
     <t>It is original requirement by OEM(BMW). 
-I think the reason they choose # of tests as 20 is because in an embedded system like vehicle, 20 tests (requests) run concurrenly is considered high traffic environment. So if all 20 tests run concurrently with PASS result, it shows that system meets some expected level of stablibity. In validation section, I also evaluate performance by using 20 concurrent requests from external component.
+I think the reason they choose # of tests as 20 is because in an embedded system like vehicle's Telematics, executing 20 tests (requests) concurrenly is considered as high traffic environment. So if all 20 tests run concurrently with PASS result, it shows that system meets some expected level of stablibity. In validation section, I also evaluate performance by using 20 concurrent requests from external component.
 The kind of test is functional testing. For example, testing for emergency feature, coding feature, etc.</t>
   </si>
   <si>
-    <t>I correct mismatch in new version.</t>
-  </si>
-  <si>
-    <t>Thank you very much for your review. 
+    <t>I correct mismatch in new version (version 1.8).</t>
+  </si>
+  <si>
+    <t>Thank you very much for your great review. 
 I corrected many missing TBD parts. I will prepare carefully for presentation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -860,30 +851,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -903,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24">
+    <row r="3" spans="1:12" ht="16">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -968,7 +959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="204">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="208">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -996,7 +987,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="36">
+    <row r="8" spans="1:12" ht="48">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -1026,7 +1017,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="180">
+    <row r="9" spans="1:12" ht="192">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1047,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="36">
+    <row r="10" spans="1:12" ht="48">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1086,7 +1077,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="168">
+    <row r="11" spans="1:12" ht="176">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1107,7 +1098,7 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
@@ -1116,7 +1107,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" ht="384">
+    <row r="12" spans="1:12" ht="409.6">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1146,7 +1137,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="276">
+    <row r="13" spans="1:12" ht="288">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1207,10 +1198,10 @@
         <v>79</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1231,7 +1222,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1255,7 +1246,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="9" t="s">
@@ -1266,7 +1257,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="48">
+    <row r="17" spans="1:12" ht="64">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -2053,22 +2044,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"피드백종류"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>심사차수</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>평가항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>대응방법</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>최종피드백</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165 C18" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>피드백종류</formula1>
     </dataValidation>
   </dataValidations>
@@ -2081,20 +2072,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
